--- a/docs/resources/implemented_features_with_reference.xlsx
+++ b/docs/resources/implemented_features_with_reference.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Name</t>
   </si>
@@ -177,13 +177,31 @@
   </si>
   <si>
     <t>Duan et al, 2014, JEM; Ghorani et al., 2018, Ann Oncol.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRIME        </t>
+  </si>
+  <si>
+    <t>Schmidt et al., 2021, Cell Reports Medicine</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://doi.org/10.1016/j.xcrm.2021.100194 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEX  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chiaro et al., 2021, Cancer Immunology Research </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://doi.org/10.1158/2326-6066.CIR-20-0814   </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -205,8 +223,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF808080"/>
+      <name val="JetBrains Mono"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,6 +239,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2B2B2B"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -233,11 +262,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -519,19 +554,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="68.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +577,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -553,7 +588,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -564,7 +599,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -575,7 +610,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -586,7 +621,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -597,7 +632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -608,7 +643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -619,7 +654,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -630,7 +665,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -641,7 +676,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -652,7 +687,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -663,7 +698,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -674,7 +709,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -685,7 +720,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -696,7 +731,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -707,7 +742,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -717,6 +752,34 @@
       <c r="C17" t="s">
         <v>43</v>
       </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="B21" s="4"/>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="5"/>
     </row>
   </sheetData>
   <hyperlinks>
